--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF1EACC-BB3E-430A-A00B-7E7F9DE1EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72671E4-0637-4E48-8BD7-7929AC466493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64605" yWindow="840" windowWidth="18090" windowHeight="18000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="59730" yWindow="1110" windowWidth="16995" windowHeight="17400" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G371"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A352" sqref="A352:G371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8521,6 +8521,466 @@
         <v>49</v>
       </c>
     </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A352">
+        <v>2895</v>
+      </c>
+      <c r="B352">
+        <v>9</v>
+      </c>
+      <c r="C352">
+        <v>11</v>
+      </c>
+      <c r="D352">
+        <v>44</v>
+      </c>
+      <c r="E352">
+        <v>51</v>
+      </c>
+      <c r="F352">
+        <v>52</v>
+      </c>
+      <c r="G352">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A353">
+        <v>2896</v>
+      </c>
+      <c r="B353">
+        <v>8</v>
+      </c>
+      <c r="C353">
+        <v>9</v>
+      </c>
+      <c r="D353">
+        <v>12</v>
+      </c>
+      <c r="E353">
+        <v>16</v>
+      </c>
+      <c r="F353">
+        <v>43</v>
+      </c>
+      <c r="G353">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A354">
+        <v>2897</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>6</v>
+      </c>
+      <c r="D354">
+        <v>24</v>
+      </c>
+      <c r="E354">
+        <v>27</v>
+      </c>
+      <c r="F354">
+        <v>28</v>
+      </c>
+      <c r="G354">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A355">
+        <v>2898</v>
+      </c>
+      <c r="B355">
+        <v>14</v>
+      </c>
+      <c r="C355">
+        <v>23</v>
+      </c>
+      <c r="D355">
+        <v>30</v>
+      </c>
+      <c r="E355">
+        <v>32</v>
+      </c>
+      <c r="F355">
+        <v>38</v>
+      </c>
+      <c r="G355">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A356">
+        <v>2899</v>
+      </c>
+      <c r="B356">
+        <v>10</v>
+      </c>
+      <c r="C356">
+        <v>22</v>
+      </c>
+      <c r="D356">
+        <v>28</v>
+      </c>
+      <c r="E356">
+        <v>42</v>
+      </c>
+      <c r="F356">
+        <v>44</v>
+      </c>
+      <c r="G356">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A357">
+        <v>2900</v>
+      </c>
+      <c r="B357">
+        <v>33</v>
+      </c>
+      <c r="C357">
+        <v>50</v>
+      </c>
+      <c r="D357">
+        <v>54</v>
+      </c>
+      <c r="E357">
+        <v>55</v>
+      </c>
+      <c r="F357">
+        <v>59</v>
+      </c>
+      <c r="G357">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A358">
+        <v>2901</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+      <c r="C358">
+        <v>20</v>
+      </c>
+      <c r="D358">
+        <v>28</v>
+      </c>
+      <c r="E358">
+        <v>38</v>
+      </c>
+      <c r="F358">
+        <v>44</v>
+      </c>
+      <c r="G358">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A359">
+        <v>2902</v>
+      </c>
+      <c r="B359">
+        <v>8</v>
+      </c>
+      <c r="C359">
+        <v>21</v>
+      </c>
+      <c r="D359">
+        <v>22</v>
+      </c>
+      <c r="E359">
+        <v>42</v>
+      </c>
+      <c r="F359">
+        <v>45</v>
+      </c>
+      <c r="G359">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A360">
+        <v>2903</v>
+      </c>
+      <c r="B360">
+        <v>20</v>
+      </c>
+      <c r="C360">
+        <v>24</v>
+      </c>
+      <c r="D360">
+        <v>27</v>
+      </c>
+      <c r="E360">
+        <v>46</v>
+      </c>
+      <c r="F360">
+        <v>50</v>
+      </c>
+      <c r="G360">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A361">
+        <v>2904</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361">
+        <v>37</v>
+      </c>
+      <c r="D361">
+        <v>38</v>
+      </c>
+      <c r="E361">
+        <v>46</v>
+      </c>
+      <c r="F361">
+        <v>52</v>
+      </c>
+      <c r="G361">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A362">
+        <v>2905</v>
+      </c>
+      <c r="B362">
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <v>17</v>
+      </c>
+      <c r="D362">
+        <v>18</v>
+      </c>
+      <c r="E362">
+        <v>26</v>
+      </c>
+      <c r="F362">
+        <v>43</v>
+      </c>
+      <c r="G362">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A363">
+        <v>2906</v>
+      </c>
+      <c r="B363">
+        <v>17</v>
+      </c>
+      <c r="C363">
+        <v>33</v>
+      </c>
+      <c r="D363">
+        <v>37</v>
+      </c>
+      <c r="E363">
+        <v>41</v>
+      </c>
+      <c r="F363">
+        <v>46</v>
+      </c>
+      <c r="G363">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A364">
+        <v>2907</v>
+      </c>
+      <c r="B364">
+        <v>30</v>
+      </c>
+      <c r="C364">
+        <v>33</v>
+      </c>
+      <c r="D364">
+        <v>42</v>
+      </c>
+      <c r="E364">
+        <v>44</v>
+      </c>
+      <c r="F364">
+        <v>52</v>
+      </c>
+      <c r="G364">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A365">
+        <v>2908</v>
+      </c>
+      <c r="B365">
+        <v>20</v>
+      </c>
+      <c r="C365">
+        <v>35</v>
+      </c>
+      <c r="D365">
+        <v>36</v>
+      </c>
+      <c r="E365">
+        <v>37</v>
+      </c>
+      <c r="F365">
+        <v>38</v>
+      </c>
+      <c r="G365">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A366">
+        <v>2909</v>
+      </c>
+      <c r="B366">
+        <v>8</v>
+      </c>
+      <c r="C366">
+        <v>21</v>
+      </c>
+      <c r="D366">
+        <v>31</v>
+      </c>
+      <c r="E366">
+        <v>41</v>
+      </c>
+      <c r="F366">
+        <v>53</v>
+      </c>
+      <c r="G366">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A367">
+        <v>2910</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>4</v>
+      </c>
+      <c r="D367">
+        <v>11</v>
+      </c>
+      <c r="E367">
+        <v>15</v>
+      </c>
+      <c r="F367">
+        <v>28</v>
+      </c>
+      <c r="G367">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A368">
+        <v>2911</v>
+      </c>
+      <c r="B368">
+        <v>23</v>
+      </c>
+      <c r="C368">
+        <v>27</v>
+      </c>
+      <c r="D368">
+        <v>32</v>
+      </c>
+      <c r="E368">
+        <v>54</v>
+      </c>
+      <c r="F368">
+        <v>56</v>
+      </c>
+      <c r="G368">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A369">
+        <v>2912</v>
+      </c>
+      <c r="B369">
+        <v>9</v>
+      </c>
+      <c r="C369">
+        <v>25</v>
+      </c>
+      <c r="D369">
+        <v>37</v>
+      </c>
+      <c r="E369">
+        <v>41</v>
+      </c>
+      <c r="F369">
+        <v>51</v>
+      </c>
+      <c r="G369">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A370">
+        <v>2913</v>
+      </c>
+      <c r="B370">
+        <v>17</v>
+      </c>
+      <c r="C370">
+        <v>21</v>
+      </c>
+      <c r="D370">
+        <v>34</v>
+      </c>
+      <c r="E370">
+        <v>52</v>
+      </c>
+      <c r="F370">
+        <v>55</v>
+      </c>
+      <c r="G370">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A371">
+        <v>2914</v>
+      </c>
+      <c r="B371">
+        <v>18</v>
+      </c>
+      <c r="C371">
+        <v>25</v>
+      </c>
+      <c r="D371">
+        <v>35</v>
+      </c>
+      <c r="E371">
+        <v>40</v>
+      </c>
+      <c r="F371">
+        <v>46</v>
+      </c>
+      <c r="G371">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8528,16 +8988,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8705,6 +9155,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8715,17 +9175,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8745,6 +9194,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72671E4-0637-4E48-8BD7-7929AC466493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20D1C7-92EB-40C4-A1E5-5EA4546F2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59730" yWindow="1110" windowWidth="16995" windowHeight="17400" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="69735" yWindow="0" windowWidth="25515" windowHeight="12795" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -109,11 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G371"/>
+  <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="A352" sqref="A352:G371"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="E366" sqref="E366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8981,6 +8983,75 @@
         <v>47</v>
       </c>
     </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A372" s="2">
+        <v>2915</v>
+      </c>
+      <c r="B372" s="3">
+        <v>10</v>
+      </c>
+      <c r="C372" s="3">
+        <v>11</v>
+      </c>
+      <c r="D372" s="3">
+        <v>15</v>
+      </c>
+      <c r="E372" s="3">
+        <v>38</v>
+      </c>
+      <c r="F372" s="3">
+        <v>52</v>
+      </c>
+      <c r="G372" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A373" s="2">
+        <v>2916</v>
+      </c>
+      <c r="B373" s="3">
+        <v>5</v>
+      </c>
+      <c r="C373" s="3">
+        <v>11</v>
+      </c>
+      <c r="D373" s="3">
+        <v>16</v>
+      </c>
+      <c r="E373" s="3">
+        <v>27</v>
+      </c>
+      <c r="F373" s="3">
+        <v>40</v>
+      </c>
+      <c r="G373" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A374" s="2">
+        <v>2917</v>
+      </c>
+      <c r="B374" s="3">
+        <v>6</v>
+      </c>
+      <c r="C374" s="3">
+        <v>19</v>
+      </c>
+      <c r="D374" s="3">
+        <v>38</v>
+      </c>
+      <c r="E374" s="3">
+        <v>41</v>
+      </c>
+      <c r="F374" s="3">
+        <v>46</v>
+      </c>
+      <c r="G374" s="3">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8988,6 +9059,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9155,16 +9236,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9175,6 +9246,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9194,17 +9276,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F20D1C7-92EB-40C4-A1E5-5EA4546F2BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F57116-F3E6-4511-86B1-F94C56794837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69735" yWindow="0" windowWidth="25515" windowHeight="12795" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="75285" yWindow="675" windowWidth="18255" windowHeight="17505" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G374"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="E366" sqref="E366"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381:G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8984,72 +8984,440 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A372" s="2">
+      <c r="A372">
         <v>2915</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372">
         <v>10</v>
       </c>
-      <c r="C372" s="3">
+      <c r="C372">
         <v>11</v>
       </c>
-      <c r="D372" s="3">
+      <c r="D372">
         <v>15</v>
       </c>
-      <c r="E372" s="3">
+      <c r="E372">
         <v>38</v>
       </c>
-      <c r="F372" s="3">
+      <c r="F372">
         <v>52</v>
       </c>
-      <c r="G372" s="3">
+      <c r="G372">
         <v>60</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A373" s="2">
+      <c r="A373">
         <v>2916</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373">
         <v>5</v>
       </c>
-      <c r="C373" s="3">
+      <c r="C373">
         <v>11</v>
       </c>
-      <c r="D373" s="3">
+      <c r="D373">
         <v>16</v>
       </c>
-      <c r="E373" s="3">
+      <c r="E373">
         <v>27</v>
       </c>
-      <c r="F373" s="3">
+      <c r="F373">
         <v>40</v>
       </c>
-      <c r="G373" s="3">
+      <c r="G373">
         <v>45</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A374" s="2">
+      <c r="A374">
         <v>2917</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374">
         <v>6</v>
       </c>
-      <c r="C374" s="3">
+      <c r="C374">
         <v>19</v>
       </c>
-      <c r="D374" s="3">
+      <c r="D374">
         <v>38</v>
       </c>
-      <c r="E374" s="3">
+      <c r="E374">
         <v>41</v>
       </c>
-      <c r="F374" s="3">
+      <c r="F374">
         <v>46</v>
       </c>
-      <c r="G374" s="3">
+      <c r="G374">
         <v>57</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A375">
+        <v>2918</v>
+      </c>
+      <c r="B375">
+        <v>11</v>
+      </c>
+      <c r="C375">
+        <v>27</v>
+      </c>
+      <c r="D375">
+        <v>31</v>
+      </c>
+      <c r="E375">
+        <v>41</v>
+      </c>
+      <c r="F375">
+        <v>48</v>
+      </c>
+      <c r="G375">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A376">
+        <v>2919</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>26</v>
+      </c>
+      <c r="D376">
+        <v>28</v>
+      </c>
+      <c r="E376">
+        <v>37</v>
+      </c>
+      <c r="F376">
+        <v>42</v>
+      </c>
+      <c r="G376">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A377">
+        <v>2920</v>
+      </c>
+      <c r="B377">
+        <v>8</v>
+      </c>
+      <c r="C377">
+        <v>12</v>
+      </c>
+      <c r="D377">
+        <v>16</v>
+      </c>
+      <c r="E377">
+        <v>19</v>
+      </c>
+      <c r="F377">
+        <v>31</v>
+      </c>
+      <c r="G377">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A378">
+        <v>2921</v>
+      </c>
+      <c r="B378">
+        <v>9</v>
+      </c>
+      <c r="C378">
+        <v>12</v>
+      </c>
+      <c r="D378">
+        <v>14</v>
+      </c>
+      <c r="E378">
+        <v>16</v>
+      </c>
+      <c r="F378">
+        <v>26</v>
+      </c>
+      <c r="G378">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A379">
+        <v>2922</v>
+      </c>
+      <c r="B379">
+        <v>4</v>
+      </c>
+      <c r="C379">
+        <v>23</v>
+      </c>
+      <c r="D379">
+        <v>30</v>
+      </c>
+      <c r="E379">
+        <v>39</v>
+      </c>
+      <c r="F379">
+        <v>40</v>
+      </c>
+      <c r="G379">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A380">
+        <v>2923</v>
+      </c>
+      <c r="B380">
+        <v>18</v>
+      </c>
+      <c r="C380">
+        <v>27</v>
+      </c>
+      <c r="D380">
+        <v>32</v>
+      </c>
+      <c r="E380">
+        <v>39</v>
+      </c>
+      <c r="F380">
+        <v>55</v>
+      </c>
+      <c r="G380">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A381" s="2">
+        <v>2924</v>
+      </c>
+      <c r="B381" s="3">
+        <v>10</v>
+      </c>
+      <c r="C381" s="3">
+        <v>19</v>
+      </c>
+      <c r="D381" s="3">
+        <v>30</v>
+      </c>
+      <c r="E381" s="3">
+        <v>40</v>
+      </c>
+      <c r="F381" s="3">
+        <v>48</v>
+      </c>
+      <c r="G381" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A382" s="2">
+        <v>2925</v>
+      </c>
+      <c r="B382" s="3">
+        <v>7</v>
+      </c>
+      <c r="C382" s="3">
+        <v>9</v>
+      </c>
+      <c r="D382" s="3">
+        <v>12</v>
+      </c>
+      <c r="E382" s="3">
+        <v>13</v>
+      </c>
+      <c r="F382" s="3">
+        <v>24</v>
+      </c>
+      <c r="G382" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A383" s="2">
+        <v>2926</v>
+      </c>
+      <c r="B383" s="3">
+        <v>3</v>
+      </c>
+      <c r="C383" s="3">
+        <v>4</v>
+      </c>
+      <c r="D383" s="3">
+        <v>14</v>
+      </c>
+      <c r="E383" s="3">
+        <v>35</v>
+      </c>
+      <c r="F383" s="3">
+        <v>45</v>
+      </c>
+      <c r="G383" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A384" s="2">
+        <v>2927</v>
+      </c>
+      <c r="B384" s="3">
+        <v>11</v>
+      </c>
+      <c r="C384" s="3">
+        <v>27</v>
+      </c>
+      <c r="D384" s="3">
+        <v>34</v>
+      </c>
+      <c r="E384" s="3">
+        <v>55</v>
+      </c>
+      <c r="F384" s="3">
+        <v>56</v>
+      </c>
+      <c r="G384" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A385" s="2">
+        <v>2928</v>
+      </c>
+      <c r="B385" s="3">
+        <v>14</v>
+      </c>
+      <c r="C385" s="3">
+        <v>24</v>
+      </c>
+      <c r="D385" s="3">
+        <v>29</v>
+      </c>
+      <c r="E385" s="3">
+        <v>32</v>
+      </c>
+      <c r="F385" s="3">
+        <v>46</v>
+      </c>
+      <c r="G385" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A386" s="2">
+        <v>2929</v>
+      </c>
+      <c r="B386" s="3">
+        <v>3</v>
+      </c>
+      <c r="C386" s="3">
+        <v>7</v>
+      </c>
+      <c r="D386" s="3">
+        <v>8</v>
+      </c>
+      <c r="E386" s="3">
+        <v>34</v>
+      </c>
+      <c r="F386" s="3">
+        <v>35</v>
+      </c>
+      <c r="G386" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A387" s="2">
+        <v>2930</v>
+      </c>
+      <c r="B387" s="3">
+        <v>1</v>
+      </c>
+      <c r="C387" s="3">
+        <v>11</v>
+      </c>
+      <c r="D387" s="3">
+        <v>13</v>
+      </c>
+      <c r="E387" s="3">
+        <v>14</v>
+      </c>
+      <c r="F387" s="3">
+        <v>36</v>
+      </c>
+      <c r="G387" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A388" s="2">
+        <v>2931</v>
+      </c>
+      <c r="B388" s="3">
+        <v>4</v>
+      </c>
+      <c r="C388" s="3">
+        <v>19</v>
+      </c>
+      <c r="D388" s="3">
+        <v>23</v>
+      </c>
+      <c r="E388" s="3">
+        <v>36</v>
+      </c>
+      <c r="F388" s="3">
+        <v>47</v>
+      </c>
+      <c r="G388" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A389" s="2">
+        <v>2932</v>
+      </c>
+      <c r="B389" s="3">
+        <v>4</v>
+      </c>
+      <c r="C389" s="3">
+        <v>13</v>
+      </c>
+      <c r="D389" s="3">
+        <v>25</v>
+      </c>
+      <c r="E389" s="3">
+        <v>36</v>
+      </c>
+      <c r="F389" s="3">
+        <v>40</v>
+      </c>
+      <c r="G389" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A390" s="2">
+        <v>2933</v>
+      </c>
+      <c r="B390" s="3">
+        <v>1</v>
+      </c>
+      <c r="C390" s="3">
+        <v>18</v>
+      </c>
+      <c r="D390" s="3">
+        <v>22</v>
+      </c>
+      <c r="E390" s="3">
+        <v>42</v>
+      </c>
+      <c r="F390" s="3">
+        <v>48</v>
+      </c>
+      <c r="G390" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F57116-F3E6-4511-86B1-F94C56794837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84FE6C1-7380-42FD-8BAB-68D6084DD220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75285" yWindow="675" windowWidth="18255" windowHeight="17505" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57390" yWindow="165" windowWidth="23685" windowHeight="13800" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G390"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="B381" sqref="B381:G390"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="B391" sqref="B391:G394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9191,233 +9191,325 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A381" s="2">
+      <c r="A381">
         <v>2924</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381">
         <v>10</v>
       </c>
-      <c r="C381" s="3">
+      <c r="C381">
         <v>19</v>
       </c>
-      <c r="D381" s="3">
+      <c r="D381">
         <v>30</v>
       </c>
-      <c r="E381" s="3">
+      <c r="E381">
         <v>40</v>
       </c>
-      <c r="F381" s="3">
+      <c r="F381">
         <v>48</v>
       </c>
-      <c r="G381" s="3">
+      <c r="G381">
         <v>54</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A382" s="2">
+      <c r="A382">
         <v>2925</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382">
         <v>7</v>
       </c>
-      <c r="C382" s="3">
+      <c r="C382">
         <v>9</v>
       </c>
-      <c r="D382" s="3">
+      <c r="D382">
         <v>12</v>
       </c>
-      <c r="E382" s="3">
+      <c r="E382">
         <v>13</v>
       </c>
-      <c r="F382" s="3">
+      <c r="F382">
         <v>24</v>
       </c>
-      <c r="G382" s="3">
+      <c r="G382">
         <v>27</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A383" s="2">
+      <c r="A383">
         <v>2926</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383">
         <v>3</v>
       </c>
-      <c r="C383" s="3">
+      <c r="C383">
         <v>4</v>
       </c>
-      <c r="D383" s="3">
+      <c r="D383">
         <v>14</v>
       </c>
-      <c r="E383" s="3">
+      <c r="E383">
         <v>35</v>
       </c>
-      <c r="F383" s="3">
+      <c r="F383">
         <v>45</v>
       </c>
-      <c r="G383" s="3">
+      <c r="G383">
         <v>49</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A384" s="2">
+      <c r="A384">
         <v>2927</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384">
         <v>11</v>
       </c>
-      <c r="C384" s="3">
+      <c r="C384">
         <v>27</v>
       </c>
-      <c r="D384" s="3">
+      <c r="D384">
         <v>34</v>
       </c>
-      <c r="E384" s="3">
+      <c r="E384">
         <v>55</v>
       </c>
-      <c r="F384" s="3">
+      <c r="F384">
         <v>56</v>
       </c>
-      <c r="G384" s="3">
+      <c r="G384">
         <v>58</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A385" s="2">
+      <c r="A385">
         <v>2928</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385">
         <v>14</v>
       </c>
-      <c r="C385" s="3">
+      <c r="C385">
         <v>24</v>
       </c>
-      <c r="D385" s="3">
+      <c r="D385">
         <v>29</v>
       </c>
-      <c r="E385" s="3">
+      <c r="E385">
         <v>32</v>
       </c>
-      <c r="F385" s="3">
+      <c r="F385">
         <v>46</v>
       </c>
-      <c r="G385" s="3">
+      <c r="G385">
         <v>48</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A386" s="2">
+      <c r="A386">
         <v>2929</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386">
         <v>3</v>
       </c>
-      <c r="C386" s="3">
+      <c r="C386">
         <v>7</v>
       </c>
-      <c r="D386" s="3">
+      <c r="D386">
         <v>8</v>
       </c>
-      <c r="E386" s="3">
+      <c r="E386">
         <v>34</v>
       </c>
-      <c r="F386" s="3">
+      <c r="F386">
         <v>35</v>
       </c>
-      <c r="G386" s="3">
+      <c r="G386">
         <v>51</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A387" s="2">
+      <c r="A387">
         <v>2930</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387">
         <v>1</v>
       </c>
-      <c r="C387" s="3">
+      <c r="C387">
         <v>11</v>
       </c>
-      <c r="D387" s="3">
+      <c r="D387">
         <v>13</v>
       </c>
-      <c r="E387" s="3">
+      <c r="E387">
         <v>14</v>
       </c>
-      <c r="F387" s="3">
+      <c r="F387">
         <v>36</v>
       </c>
-      <c r="G387" s="3">
+      <c r="G387">
         <v>45</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A388" s="2">
+      <c r="A388">
         <v>2931</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388">
         <v>4</v>
       </c>
-      <c r="C388" s="3">
+      <c r="C388">
         <v>19</v>
       </c>
-      <c r="D388" s="3">
+      <c r="D388">
         <v>23</v>
       </c>
-      <c r="E388" s="3">
+      <c r="E388">
         <v>36</v>
       </c>
-      <c r="F388" s="3">
+      <c r="F388">
         <v>47</v>
       </c>
-      <c r="G388" s="3">
+      <c r="G388">
         <v>52</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A389" s="2">
+      <c r="A389">
         <v>2932</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389">
         <v>4</v>
       </c>
-      <c r="C389" s="3">
+      <c r="C389">
         <v>13</v>
       </c>
-      <c r="D389" s="3">
+      <c r="D389">
         <v>25</v>
       </c>
-      <c r="E389" s="3">
+      <c r="E389">
         <v>36</v>
       </c>
-      <c r="F389" s="3">
+      <c r="F389">
         <v>40</v>
       </c>
-      <c r="G389" s="3">
+      <c r="G389">
         <v>53</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A390" s="2">
+      <c r="A390">
         <v>2933</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390">
         <v>1</v>
       </c>
-      <c r="C390" s="3">
+      <c r="C390">
         <v>18</v>
       </c>
-      <c r="D390" s="3">
+      <c r="D390">
         <v>22</v>
       </c>
-      <c r="E390" s="3">
+      <c r="E390">
         <v>42</v>
       </c>
-      <c r="F390" s="3">
+      <c r="F390">
         <v>48</v>
       </c>
-      <c r="G390" s="3">
+      <c r="G390">
         <v>50</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A391" s="2">
+        <v>2934</v>
+      </c>
+      <c r="B391" s="3">
+        <v>9</v>
+      </c>
+      <c r="C391" s="3">
+        <v>17</v>
+      </c>
+      <c r="D391" s="3">
+        <v>23</v>
+      </c>
+      <c r="E391" s="3">
+        <v>26</v>
+      </c>
+      <c r="F391" s="3">
+        <v>33</v>
+      </c>
+      <c r="G391" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A392" s="2">
+        <v>2935</v>
+      </c>
+      <c r="B392" s="3">
+        <v>9</v>
+      </c>
+      <c r="C392" s="3">
+        <v>18</v>
+      </c>
+      <c r="D392" s="3">
+        <v>28</v>
+      </c>
+      <c r="E392" s="3">
+        <v>34</v>
+      </c>
+      <c r="F392" s="3">
+        <v>38</v>
+      </c>
+      <c r="G392" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A393" s="2">
+        <v>2936</v>
+      </c>
+      <c r="B393" s="3">
+        <v>4</v>
+      </c>
+      <c r="C393" s="3">
+        <v>7</v>
+      </c>
+      <c r="D393" s="3">
+        <v>9</v>
+      </c>
+      <c r="E393" s="3">
+        <v>15</v>
+      </c>
+      <c r="F393" s="3">
+        <v>29</v>
+      </c>
+      <c r="G393" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A394" s="2">
+        <v>2937</v>
+      </c>
+      <c r="B394" s="3">
+        <v>12</v>
+      </c>
+      <c r="C394" s="3">
+        <v>17</v>
+      </c>
+      <c r="D394" s="3">
+        <v>26</v>
+      </c>
+      <c r="E394" s="3">
+        <v>34</v>
+      </c>
+      <c r="F394" s="3">
+        <v>44</v>
+      </c>
+      <c r="G394" s="3">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -9427,16 +9519,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9604,6 +9686,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9614,17 +9706,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9644,6 +9725,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84FE6C1-7380-42FD-8BAB-68D6084DD220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A8835-2FBC-4EE4-9622-9F04DCC831AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57390" yWindow="165" windowWidth="23685" windowHeight="13800" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57690" yWindow="420" windowWidth="26025" windowHeight="10515" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -109,13 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="B391" sqref="B391:G394"/>
+      <selection activeCell="I393" sqref="I393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9421,95 +9419,141 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A391" s="2">
+      <c r="A391">
         <v>2934</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391">
         <v>9</v>
       </c>
-      <c r="C391" s="3">
+      <c r="C391">
         <v>17</v>
       </c>
-      <c r="D391" s="3">
+      <c r="D391">
         <v>23</v>
       </c>
-      <c r="E391" s="3">
+      <c r="E391">
         <v>26</v>
       </c>
-      <c r="F391" s="3">
+      <c r="F391">
         <v>33</v>
       </c>
-      <c r="G391" s="3">
+      <c r="G391">
         <v>59</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A392" s="2">
+      <c r="A392">
         <v>2935</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392">
         <v>9</v>
       </c>
-      <c r="C392" s="3">
+      <c r="C392">
         <v>18</v>
       </c>
-      <c r="D392" s="3">
+      <c r="D392">
         <v>28</v>
       </c>
-      <c r="E392" s="3">
+      <c r="E392">
         <v>34</v>
       </c>
-      <c r="F392" s="3">
+      <c r="F392">
         <v>38</v>
       </c>
-      <c r="G392" s="3">
+      <c r="G392">
         <v>57</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A393" s="2">
+      <c r="A393">
         <v>2936</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393">
         <v>4</v>
       </c>
-      <c r="C393" s="3">
+      <c r="C393">
         <v>7</v>
       </c>
-      <c r="D393" s="3">
+      <c r="D393">
         <v>9</v>
       </c>
-      <c r="E393" s="3">
+      <c r="E393">
         <v>15</v>
       </c>
-      <c r="F393" s="3">
+      <c r="F393">
         <v>29</v>
       </c>
-      <c r="G393" s="3">
+      <c r="G393">
         <v>32</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A394" s="2">
+      <c r="A394">
         <v>2937</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394">
         <v>12</v>
       </c>
-      <c r="C394" s="3">
+      <c r="C394">
         <v>17</v>
       </c>
-      <c r="D394" s="3">
+      <c r="D394">
         <v>26</v>
       </c>
-      <c r="E394" s="3">
+      <c r="E394">
         <v>34</v>
       </c>
-      <c r="F394" s="3">
+      <c r="F394">
         <v>44</v>
       </c>
-      <c r="G394" s="3">
+      <c r="G394">
         <v>52</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A395">
+        <v>2938</v>
+      </c>
+      <c r="B395">
+        <v>10</v>
+      </c>
+      <c r="C395">
+        <v>14</v>
+      </c>
+      <c r="D395">
+        <v>15</v>
+      </c>
+      <c r="E395">
+        <v>35</v>
+      </c>
+      <c r="F395">
+        <v>44</v>
+      </c>
+      <c r="G395">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A396">
+        <v>2939</v>
+      </c>
+      <c r="B396">
+        <v>22</v>
+      </c>
+      <c r="C396">
+        <v>31</v>
+      </c>
+      <c r="D396">
+        <v>33</v>
+      </c>
+      <c r="E396">
+        <v>37</v>
+      </c>
+      <c r="F396">
+        <v>42</v>
+      </c>
+      <c r="G396">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9519,6 +9563,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9686,16 +9740,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9706,6 +9750,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9725,17 +9780,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A8835-2FBC-4EE4-9622-9F04DCC831AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A2969-2EB4-4FB4-A6B5-3CBCD6980923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57690" yWindow="420" windowWidth="26025" windowHeight="10515" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="66195" yWindow="3945" windowWidth="28800" windowHeight="15150" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -9563,16 +9563,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9740,6 +9730,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9750,17 +9750,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9780,6 +9769,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A2969-2EB4-4FB4-A6B5-3CBCD6980923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF1D331-6DB8-425E-8EEE-5CACAF88AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66195" yWindow="3945" windowWidth="28800" windowHeight="15150" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="62925" yWindow="2535" windowWidth="15675" windowHeight="16995" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G396"/>
+  <dimension ref="A1:G397"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="I393" sqref="I393"/>
+      <selection activeCell="A397" sqref="A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9554,6 +9554,29 @@
       </c>
       <c r="G396">
         <v>49</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A397">
+        <v>2940</v>
+      </c>
+      <c r="B397">
+        <v>7</v>
+      </c>
+      <c r="C397">
+        <v>8</v>
+      </c>
+      <c r="D397">
+        <v>9</v>
+      </c>
+      <c r="E397">
+        <v>13</v>
+      </c>
+      <c r="F397">
+        <v>22</v>
+      </c>
+      <c r="G397">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9731,6 +9754,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -9738,15 +9770,6 @@
     <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9770,6 +9793,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9778,12 +9809,4 @@
     <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF1D331-6DB8-425E-8EEE-5CACAF88AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968379BE-0463-46B6-81A8-62B6FDC4866C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62925" yWindow="2535" windowWidth="15675" windowHeight="16995" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="74850" yWindow="90" windowWidth="21150" windowHeight="8955" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -109,11 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G397"/>
+  <dimension ref="A1:G402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A397" sqref="A397"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398:G402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9579,6 +9581,121 @@
         <v>53</v>
       </c>
     </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A398" s="2">
+        <v>2941</v>
+      </c>
+      <c r="B398" s="3">
+        <v>14</v>
+      </c>
+      <c r="C398" s="3">
+        <v>30</v>
+      </c>
+      <c r="D398" s="3">
+        <v>33</v>
+      </c>
+      <c r="E398" s="3">
+        <v>35</v>
+      </c>
+      <c r="F398" s="3">
+        <v>48</v>
+      </c>
+      <c r="G398" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A399" s="2">
+        <v>2942</v>
+      </c>
+      <c r="B399" s="3">
+        <v>12</v>
+      </c>
+      <c r="C399" s="3">
+        <v>30</v>
+      </c>
+      <c r="D399" s="3">
+        <v>40</v>
+      </c>
+      <c r="E399" s="3">
+        <v>46</v>
+      </c>
+      <c r="F399" s="3">
+        <v>54</v>
+      </c>
+      <c r="G399" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A400" s="2">
+        <v>2943</v>
+      </c>
+      <c r="B400" s="3">
+        <v>8</v>
+      </c>
+      <c r="C400" s="3">
+        <v>29</v>
+      </c>
+      <c r="D400" s="3">
+        <v>30</v>
+      </c>
+      <c r="E400" s="3">
+        <v>36</v>
+      </c>
+      <c r="F400" s="3">
+        <v>39</v>
+      </c>
+      <c r="G400" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A401" s="2">
+        <v>2944</v>
+      </c>
+      <c r="B401" s="3">
+        <v>8</v>
+      </c>
+      <c r="C401" s="3">
+        <v>15</v>
+      </c>
+      <c r="D401" s="3">
+        <v>23</v>
+      </c>
+      <c r="E401" s="3">
+        <v>39</v>
+      </c>
+      <c r="F401" s="3">
+        <v>40</v>
+      </c>
+      <c r="G401" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A402" s="2">
+        <v>2945</v>
+      </c>
+      <c r="B402" s="3">
+        <v>1</v>
+      </c>
+      <c r="C402" s="3">
+        <v>2</v>
+      </c>
+      <c r="D402" s="3">
+        <v>3</v>
+      </c>
+      <c r="E402" s="3">
+        <v>7</v>
+      </c>
+      <c r="F402" s="3">
+        <v>27</v>
+      </c>
+      <c r="G402" s="3">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9586,6 +9703,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9753,15 +9879,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9773,6 +9890,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9792,14 +9917,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968379BE-0463-46B6-81A8-62B6FDC4866C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F189A-0799-4645-B7BB-06301D718C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74850" yWindow="90" windowWidth="21150" windowHeight="8955" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="75270" yWindow="3585" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G402"/>
+  <dimension ref="A1:G408"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398:G402"/>
+      <selection activeCell="B403" sqref="B403:G408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9582,118 +9582,256 @@
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A398" s="2">
+      <c r="A398">
         <v>2941</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398">
         <v>14</v>
       </c>
-      <c r="C398" s="3">
+      <c r="C398">
         <v>30</v>
       </c>
-      <c r="D398" s="3">
+      <c r="D398">
         <v>33</v>
       </c>
-      <c r="E398" s="3">
+      <c r="E398">
         <v>35</v>
       </c>
-      <c r="F398" s="3">
+      <c r="F398">
         <v>48</v>
       </c>
-      <c r="G398" s="3">
+      <c r="G398">
         <v>51</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A399" s="2">
+      <c r="A399">
         <v>2942</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399">
         <v>12</v>
       </c>
-      <c r="C399" s="3">
+      <c r="C399">
         <v>30</v>
       </c>
-      <c r="D399" s="3">
+      <c r="D399">
         <v>40</v>
       </c>
-      <c r="E399" s="3">
+      <c r="E399">
         <v>46</v>
       </c>
-      <c r="F399" s="3">
+      <c r="F399">
         <v>54</v>
       </c>
-      <c r="G399" s="3">
+      <c r="G399">
         <v>60</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A400" s="2">
+      <c r="A400">
         <v>2943</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400">
         <v>8</v>
       </c>
-      <c r="C400" s="3">
+      <c r="C400">
         <v>29</v>
       </c>
-      <c r="D400" s="3">
+      <c r="D400">
         <v>30</v>
       </c>
-      <c r="E400" s="3">
+      <c r="E400">
         <v>36</v>
       </c>
-      <c r="F400" s="3">
+      <c r="F400">
         <v>39</v>
       </c>
-      <c r="G400" s="3">
+      <c r="G400">
         <v>60</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A401" s="2">
+      <c r="A401">
         <v>2944</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401">
         <v>8</v>
       </c>
-      <c r="C401" s="3">
+      <c r="C401">
         <v>15</v>
       </c>
-      <c r="D401" s="3">
+      <c r="D401">
         <v>23</v>
       </c>
-      <c r="E401" s="3">
+      <c r="E401">
         <v>39</v>
       </c>
-      <c r="F401" s="3">
+      <c r="F401">
         <v>40</v>
       </c>
-      <c r="G401" s="3">
+      <c r="G401">
         <v>59</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A402" s="2">
+      <c r="A402">
         <v>2945</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402">
         <v>1</v>
       </c>
-      <c r="C402" s="3">
+      <c r="C402">
         <v>2</v>
       </c>
-      <c r="D402" s="3">
+      <c r="D402">
         <v>3</v>
       </c>
-      <c r="E402" s="3">
+      <c r="E402">
         <v>7</v>
       </c>
-      <c r="F402" s="3">
+      <c r="F402">
         <v>27</v>
       </c>
-      <c r="G402" s="3">
+      <c r="G402">
         <v>33</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A403" s="2">
+        <v>2946</v>
+      </c>
+      <c r="B403" s="3">
+        <v>4</v>
+      </c>
+      <c r="C403" s="3">
+        <v>13</v>
+      </c>
+      <c r="D403" s="3">
+        <v>17</v>
+      </c>
+      <c r="E403" s="3">
+        <v>21</v>
+      </c>
+      <c r="F403" s="3">
+        <v>49</v>
+      </c>
+      <c r="G403" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A404" s="2">
+        <v>2947</v>
+      </c>
+      <c r="B404" s="3">
+        <v>4</v>
+      </c>
+      <c r="C404" s="3">
+        <v>10</v>
+      </c>
+      <c r="D404" s="3">
+        <v>15</v>
+      </c>
+      <c r="E404" s="3">
+        <v>37</v>
+      </c>
+      <c r="F404" s="3">
+        <v>39</v>
+      </c>
+      <c r="G404" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A405" s="2">
+        <v>2948</v>
+      </c>
+      <c r="B405" s="3">
+        <v>6</v>
+      </c>
+      <c r="C405" s="3">
+        <v>24</v>
+      </c>
+      <c r="D405" s="3">
+        <v>37</v>
+      </c>
+      <c r="E405" s="3">
+        <v>52</v>
+      </c>
+      <c r="F405" s="3">
+        <v>53</v>
+      </c>
+      <c r="G405" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A406" s="2">
+        <v>2949</v>
+      </c>
+      <c r="B406" s="3">
+        <v>4</v>
+      </c>
+      <c r="C406" s="3">
+        <v>6</v>
+      </c>
+      <c r="D406" s="3">
+        <v>11</v>
+      </c>
+      <c r="E406" s="3">
+        <v>38</v>
+      </c>
+      <c r="F406" s="3">
+        <v>49</v>
+      </c>
+      <c r="G406" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A407" s="2">
+        <v>2950</v>
+      </c>
+      <c r="B407" s="3">
+        <v>21</v>
+      </c>
+      <c r="C407" s="3">
+        <v>23</v>
+      </c>
+      <c r="D407" s="3">
+        <v>42</v>
+      </c>
+      <c r="E407" s="3">
+        <v>49</v>
+      </c>
+      <c r="F407" s="3">
+        <v>50</v>
+      </c>
+      <c r="G407" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A408" s="2">
+        <v>2951</v>
+      </c>
+      <c r="B408" s="3">
+        <v>5</v>
+      </c>
+      <c r="C408" s="3">
+        <v>8</v>
+      </c>
+      <c r="D408" s="3">
+        <v>30</v>
+      </c>
+      <c r="E408" s="3">
+        <v>31</v>
+      </c>
+      <c r="F408" s="3">
+        <v>37</v>
+      </c>
+      <c r="G408" s="3">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -9703,15 +9841,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9879,6 +10008,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9890,14 +10028,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9917,6 +10047,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F189A-0799-4645-B7BB-06301D718C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FF2344-D5FC-436A-A4F6-BB1E604BFC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75270" yWindow="3585" windowWidth="19545" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="58860" yWindow="1260" windowWidth="18195" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G408"/>
+  <dimension ref="A1:G409"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="B403" sqref="B403:G408"/>
+      <selection activeCell="K411" sqref="K411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9697,141 +9697,164 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A403" s="2">
+      <c r="A403">
         <v>2946</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403">
         <v>4</v>
       </c>
-      <c r="C403" s="3">
+      <c r="C403">
         <v>13</v>
       </c>
-      <c r="D403" s="3">
+      <c r="D403">
         <v>17</v>
       </c>
-      <c r="E403" s="3">
+      <c r="E403">
         <v>21</v>
       </c>
-      <c r="F403" s="3">
+      <c r="F403">
         <v>49</v>
       </c>
-      <c r="G403" s="3">
+      <c r="G403">
         <v>54</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A404" s="2">
+      <c r="A404">
         <v>2947</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404">
         <v>4</v>
       </c>
-      <c r="C404" s="3">
+      <c r="C404">
         <v>10</v>
       </c>
-      <c r="D404" s="3">
+      <c r="D404">
         <v>15</v>
       </c>
-      <c r="E404" s="3">
+      <c r="E404">
         <v>37</v>
       </c>
-      <c r="F404" s="3">
+      <c r="F404">
         <v>39</v>
       </c>
-      <c r="G404" s="3">
+      <c r="G404">
         <v>44</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A405" s="2">
+      <c r="A405">
         <v>2948</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405">
         <v>6</v>
       </c>
-      <c r="C405" s="3">
+      <c r="C405">
         <v>24</v>
       </c>
-      <c r="D405" s="3">
+      <c r="D405">
         <v>37</v>
       </c>
-      <c r="E405" s="3">
+      <c r="E405">
         <v>52</v>
       </c>
-      <c r="F405" s="3">
+      <c r="F405">
         <v>53</v>
       </c>
-      <c r="G405" s="3">
+      <c r="G405">
         <v>58</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A406" s="2">
+      <c r="A406">
         <v>2949</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406">
         <v>4</v>
       </c>
-      <c r="C406" s="3">
+      <c r="C406">
         <v>6</v>
       </c>
-      <c r="D406" s="3">
+      <c r="D406">
         <v>11</v>
       </c>
-      <c r="E406" s="3">
+      <c r="E406">
         <v>38</v>
       </c>
-      <c r="F406" s="3">
+      <c r="F406">
         <v>49</v>
       </c>
-      <c r="G406" s="3">
+      <c r="G406">
         <v>54</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A407" s="2">
+      <c r="A407">
         <v>2950</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407">
         <v>21</v>
       </c>
-      <c r="C407" s="3">
+      <c r="C407">
         <v>23</v>
       </c>
-      <c r="D407" s="3">
+      <c r="D407">
         <v>42</v>
       </c>
-      <c r="E407" s="3">
+      <c r="E407">
         <v>49</v>
       </c>
-      <c r="F407" s="3">
+      <c r="F407">
         <v>50</v>
       </c>
-      <c r="G407" s="3">
+      <c r="G407">
         <v>60</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A408" s="2">
+      <c r="A408">
         <v>2951</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408">
         <v>5</v>
       </c>
-      <c r="C408" s="3">
+      <c r="C408">
         <v>8</v>
       </c>
-      <c r="D408" s="3">
+      <c r="D408">
         <v>30</v>
       </c>
-      <c r="E408" s="3">
+      <c r="E408">
         <v>31</v>
       </c>
-      <c r="F408" s="3">
+      <c r="F408">
         <v>37</v>
       </c>
-      <c r="G408" s="3">
+      <c r="G408">
         <v>45</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A409" s="2">
+        <v>2952</v>
+      </c>
+      <c r="B409" s="3">
+        <v>1</v>
+      </c>
+      <c r="C409" s="3">
+        <v>20</v>
+      </c>
+      <c r="D409" s="3">
+        <v>45</v>
+      </c>
+      <c r="E409" s="3">
+        <v>48</v>
+      </c>
+      <c r="F409" s="3">
+        <v>51</v>
+      </c>
+      <c r="G409" s="3">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -9841,6 +9864,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10008,15 +10040,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10028,6 +10051,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10047,14 +10078,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FF2344-D5FC-436A-A4F6-BB1E604BFC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D9938-CC59-42CF-8A45-42E55B582C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58860" yWindow="1260" windowWidth="18195" windowHeight="12000" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="74310" yWindow="330" windowWidth="20130" windowHeight="11310" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -109,13 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G409"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="K411" sqref="K411"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="G412" sqref="G412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9835,26 +9833,72 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A409" s="2">
+      <c r="A409">
         <v>2952</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409">
         <v>1</v>
       </c>
-      <c r="C409" s="3">
+      <c r="C409">
         <v>20</v>
       </c>
-      <c r="D409" s="3">
+      <c r="D409">
         <v>45</v>
       </c>
-      <c r="E409" s="3">
+      <c r="E409">
         <v>48</v>
       </c>
-      <c r="F409" s="3">
+      <c r="F409">
         <v>51</v>
       </c>
-      <c r="G409" s="3">
+      <c r="G409">
         <v>58</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A410">
+        <v>2953</v>
+      </c>
+      <c r="B410">
+        <v>5</v>
+      </c>
+      <c r="C410">
+        <v>10</v>
+      </c>
+      <c r="D410">
+        <v>24</v>
+      </c>
+      <c r="E410">
+        <v>25</v>
+      </c>
+      <c r="F410">
+        <v>47</v>
+      </c>
+      <c r="G410">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A411">
+        <v>2954</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411">
+        <v>9</v>
+      </c>
+      <c r="D411">
+        <v>37</v>
+      </c>
+      <c r="E411">
+        <v>39</v>
+      </c>
+      <c r="F411">
+        <v>42</v>
+      </c>
+      <c r="G411">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -9864,15 +9908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10040,6 +10075,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10051,14 +10095,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10078,6 +10114,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03D9938-CC59-42CF-8A45-42E55B582C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A08407-04E9-4E72-AB61-934B809E72C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74310" yWindow="330" windowWidth="20130" windowHeight="11310" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57675" yWindow="1020" windowWidth="20205" windowHeight="9150" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -109,11 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="G412" sqref="G412"/>
+      <selection activeCell="B412" sqref="B412:G416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9901,6 +9903,121 @@
         <v>44</v>
       </c>
     </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A412" s="2">
+        <v>2955</v>
+      </c>
+      <c r="B412" s="3">
+        <v>9</v>
+      </c>
+      <c r="C412" s="3">
+        <v>13</v>
+      </c>
+      <c r="D412" s="3">
+        <v>21</v>
+      </c>
+      <c r="E412" s="3">
+        <v>32</v>
+      </c>
+      <c r="F412" s="3">
+        <v>33</v>
+      </c>
+      <c r="G412" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A413" s="2">
+        <v>2956</v>
+      </c>
+      <c r="B413" s="3">
+        <v>10</v>
+      </c>
+      <c r="C413" s="3">
+        <v>18</v>
+      </c>
+      <c r="D413" s="3">
+        <v>21</v>
+      </c>
+      <c r="E413" s="3">
+        <v>24</v>
+      </c>
+      <c r="F413" s="3">
+        <v>43</v>
+      </c>
+      <c r="G413" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A414" s="2">
+        <v>2957</v>
+      </c>
+      <c r="B414" s="3">
+        <v>19</v>
+      </c>
+      <c r="C414" s="3">
+        <v>28</v>
+      </c>
+      <c r="D414" s="3">
+        <v>36</v>
+      </c>
+      <c r="E414" s="3">
+        <v>37</v>
+      </c>
+      <c r="F414" s="3">
+        <v>48</v>
+      </c>
+      <c r="G414" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A415" s="2">
+        <v>2958</v>
+      </c>
+      <c r="B415" s="3">
+        <v>7</v>
+      </c>
+      <c r="C415" s="3">
+        <v>9</v>
+      </c>
+      <c r="D415" s="3">
+        <v>14</v>
+      </c>
+      <c r="E415" s="3">
+        <v>35</v>
+      </c>
+      <c r="F415" s="3">
+        <v>42</v>
+      </c>
+      <c r="G415" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A416" s="2">
+        <v>2959</v>
+      </c>
+      <c r="B416" s="3">
+        <v>18</v>
+      </c>
+      <c r="C416" s="3">
+        <v>26</v>
+      </c>
+      <c r="D416" s="3">
+        <v>35</v>
+      </c>
+      <c r="E416" s="3">
+        <v>41</v>
+      </c>
+      <c r="F416" s="3">
+        <v>44</v>
+      </c>
+      <c r="G416" s="3">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9908,6 +10025,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10075,15 +10201,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10095,6 +10212,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10114,14 +10239,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
   <ds:schemaRefs>

--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A08407-04E9-4E72-AB61-934B809E72C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF422E5E-DDAB-49E0-82E6-C71F9785B161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57675" yWindow="1020" windowWidth="20205" windowHeight="9150" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="57450" yWindow="645" windowWidth="23235" windowHeight="16920" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -109,13 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G416"/>
+  <dimension ref="A1:G422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="B412" sqref="B412:G416"/>
+      <selection activeCell="E430" sqref="E430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9904,118 +9902,256 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A412" s="2">
+      <c r="A412">
         <v>2955</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412">
         <v>9</v>
       </c>
-      <c r="C412" s="3">
+      <c r="C412">
         <v>13</v>
       </c>
-      <c r="D412" s="3">
+      <c r="D412">
         <v>21</v>
       </c>
-      <c r="E412" s="3">
+      <c r="E412">
         <v>32</v>
       </c>
-      <c r="F412" s="3">
+      <c r="F412">
         <v>33</v>
       </c>
-      <c r="G412" s="3">
+      <c r="G412">
         <v>59</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A413" s="2">
+      <c r="A413">
         <v>2956</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413">
         <v>10</v>
       </c>
-      <c r="C413" s="3">
+      <c r="C413">
         <v>18</v>
       </c>
-      <c r="D413" s="3">
+      <c r="D413">
         <v>21</v>
       </c>
-      <c r="E413" s="3">
+      <c r="E413">
         <v>24</v>
       </c>
-      <c r="F413" s="3">
+      <c r="F413">
         <v>43</v>
       </c>
-      <c r="G413" s="3">
+      <c r="G413">
         <v>47</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A414" s="2">
+      <c r="A414">
         <v>2957</v>
       </c>
-      <c r="B414" s="3">
+      <c r="B414">
         <v>19</v>
       </c>
-      <c r="C414" s="3">
+      <c r="C414">
         <v>28</v>
       </c>
-      <c r="D414" s="3">
+      <c r="D414">
         <v>36</v>
       </c>
-      <c r="E414" s="3">
+      <c r="E414">
         <v>37</v>
       </c>
-      <c r="F414" s="3">
+      <c r="F414">
         <v>48</v>
       </c>
-      <c r="G414" s="3">
+      <c r="G414">
         <v>52</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A415" s="2">
+      <c r="A415">
         <v>2958</v>
       </c>
-      <c r="B415" s="3">
+      <c r="B415">
         <v>7</v>
       </c>
-      <c r="C415" s="3">
+      <c r="C415">
         <v>9</v>
       </c>
-      <c r="D415" s="3">
+      <c r="D415">
         <v>14</v>
       </c>
-      <c r="E415" s="3">
+      <c r="E415">
         <v>35</v>
       </c>
-      <c r="F415" s="3">
+      <c r="F415">
         <v>42</v>
       </c>
-      <c r="G415" s="3">
+      <c r="G415">
         <v>49</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A416" s="2">
+      <c r="A416">
         <v>2959</v>
       </c>
-      <c r="B416" s="3">
+      <c r="B416">
         <v>18</v>
       </c>
-      <c r="C416" s="3">
+      <c r="C416">
         <v>26</v>
       </c>
-      <c r="D416" s="3">
+      <c r="D416">
         <v>35</v>
       </c>
-      <c r="E416" s="3">
+      <c r="E416">
         <v>41</v>
       </c>
-      <c r="F416" s="3">
+      <c r="F416">
         <v>44</v>
       </c>
-      <c r="G416" s="3">
+      <c r="G416">
         <v>45</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A417">
+        <v>2960</v>
+      </c>
+      <c r="B417">
+        <v>3</v>
+      </c>
+      <c r="C417">
+        <v>13</v>
+      </c>
+      <c r="D417">
+        <v>15</v>
+      </c>
+      <c r="E417">
+        <v>16</v>
+      </c>
+      <c r="F417">
+        <v>46</v>
+      </c>
+      <c r="G417">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A418">
+        <v>2961</v>
+      </c>
+      <c r="B418">
+        <v>10</v>
+      </c>
+      <c r="C418">
+        <v>13</v>
+      </c>
+      <c r="D418">
+        <v>55</v>
+      </c>
+      <c r="E418">
+        <v>56</v>
+      </c>
+      <c r="F418">
+        <v>59</v>
+      </c>
+      <c r="G418">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A419">
+        <v>2962</v>
+      </c>
+      <c r="B419">
+        <v>6</v>
+      </c>
+      <c r="C419">
+        <v>29</v>
+      </c>
+      <c r="D419">
+        <v>33</v>
+      </c>
+      <c r="E419">
+        <v>38</v>
+      </c>
+      <c r="F419">
+        <v>53</v>
+      </c>
+      <c r="G419">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A420">
+        <v>2963</v>
+      </c>
+      <c r="B420">
+        <v>6</v>
+      </c>
+      <c r="C420">
+        <v>20</v>
+      </c>
+      <c r="D420">
+        <v>34</v>
+      </c>
+      <c r="E420">
+        <v>44</v>
+      </c>
+      <c r="F420">
+        <v>53</v>
+      </c>
+      <c r="G420">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A421">
+        <v>2964</v>
+      </c>
+      <c r="B421">
+        <v>3</v>
+      </c>
+      <c r="C421">
+        <v>9</v>
+      </c>
+      <c r="D421">
+        <v>15</v>
+      </c>
+      <c r="E421">
+        <v>17</v>
+      </c>
+      <c r="F421">
+        <v>30</v>
+      </c>
+      <c r="G421">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A422">
+        <v>2965</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>20</v>
+      </c>
+      <c r="D422">
+        <v>22</v>
+      </c>
+      <c r="E422">
+        <v>23</v>
+      </c>
+      <c r="F422">
+        <v>35</v>
+      </c>
+      <c r="G422">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -10025,12 +10161,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10202,19 +10339,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10240,12 +10379,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LoteriasExcel/MegaSena_edt.xlsx
+++ b/LoteriasExcel/MegaSena_edt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\! 000 ByPass\Pessoal\99_Loterias\0 - Loterias-Inteligentes\LoteriasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF422E5E-DDAB-49E0-82E6-C71F9785B161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7168E5F9-FD66-4B2D-851F-E0B1C8DF64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57450" yWindow="645" windowWidth="23235" windowHeight="16920" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
+    <workbookView xWindow="78675" yWindow="615" windowWidth="17280" windowHeight="18765" tabRatio="876" xr2:uid="{2663372B-AA50-4721-AD6B-5F0B8186ACF5}"/>
   </bookViews>
   <sheets>
     <sheet name="MEGA SENA" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Concurso</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Bola6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -109,11 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E33BD-754C-4CC3-9530-49E6C4C5E994}">
-  <dimension ref="A1:G422"/>
+  <dimension ref="A1:G429"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="E430" sqref="E430"/>
+      <selection activeCell="E431" sqref="E431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10135,23 +10141,181 @@
       <c r="A422">
         <v>2965</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="4">
         <v>1</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="4">
         <v>20</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="4">
         <v>22</v>
       </c>
-      <c r="E422">
+      <c r="E422" s="4">
         <v>23</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="4">
         <v>35</v>
       </c>
-      <c r="G422">
+      <c r="G422" s="4">
         <v>57</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A423" s="2">
+        <v>2966</v>
+      </c>
+      <c r="B423" s="4">
+        <v>6</v>
+      </c>
+      <c r="C423" s="4">
+        <v>7</v>
+      </c>
+      <c r="D423" s="4">
+        <v>9</v>
+      </c>
+      <c r="E423" s="4">
+        <v>43</v>
+      </c>
+      <c r="F423" s="4">
+        <v>44</v>
+      </c>
+      <c r="G423" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A424" s="2">
+        <v>2967</v>
+      </c>
+      <c r="B424" s="4">
+        <v>1</v>
+      </c>
+      <c r="C424" s="4">
+        <v>6</v>
+      </c>
+      <c r="D424" s="4">
+        <v>38</v>
+      </c>
+      <c r="E424" s="4">
+        <v>47</v>
+      </c>
+      <c r="F424" s="4">
+        <v>56</v>
+      </c>
+      <c r="G424" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A425" s="2">
+        <v>2968</v>
+      </c>
+      <c r="B425" s="4">
+        <v>10</v>
+      </c>
+      <c r="C425" s="4">
+        <v>11</v>
+      </c>
+      <c r="D425" s="4">
+        <v>22</v>
+      </c>
+      <c r="E425" s="4">
+        <v>26</v>
+      </c>
+      <c r="F425" s="4">
+        <v>36</v>
+      </c>
+      <c r="G425" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A426" s="2">
+        <v>2969</v>
+      </c>
+      <c r="B426" s="4">
+        <v>1</v>
+      </c>
+      <c r="C426" s="4">
+        <v>2</v>
+      </c>
+      <c r="D426" s="4">
+        <v>5</v>
+      </c>
+      <c r="E426" s="4">
+        <v>14</v>
+      </c>
+      <c r="F426" s="4">
+        <v>18</v>
+      </c>
+      <c r="G426" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A427" s="2">
+        <v>2970</v>
+      </c>
+      <c r="B427" s="4">
+        <v>22</v>
+      </c>
+      <c r="C427" s="4">
+        <v>32</v>
+      </c>
+      <c r="D427" s="4">
+        <v>37</v>
+      </c>
+      <c r="E427" s="4">
+        <v>41</v>
+      </c>
+      <c r="F427" s="4">
+        <v>42</v>
+      </c>
+      <c r="G427" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A428" s="2">
+        <v>2971</v>
+      </c>
+      <c r="B428" s="4">
+        <v>1</v>
+      </c>
+      <c r="C428" s="4">
+        <v>27</v>
+      </c>
+      <c r="D428" s="4">
+        <v>39</v>
+      </c>
+      <c r="E428" s="4">
+        <v>40</v>
+      </c>
+      <c r="F428" s="4">
+        <v>46</v>
+      </c>
+      <c r="G428" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -10161,16 +10325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C92CDE8829F3C7438DCCB0991C30EAAE" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36cf41eecaf38ba1d849a0c8dd067090">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3e38fcf2-aa96-4a2c-865b-c3abba01ba51" xmlns:ns3="4455b8ba-124f-46d5-aaaa-9813efd83d1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="023f68b2d27389a617bf935a3f0e17ad" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10338,6 +10492,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-31T04:01:53+00:00</AtualizadoPeloTimerJobEm>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10348,17 +10512,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9445F805-6E3A-4841-AEBD-CF7F6CDA924D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10378,6 +10531,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64615F65-CF13-4100-B135-FA0CB5E1C951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4455b8ba-124f-46d5-aaaa-9813efd83d1e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834FBCC7-87B2-49AB-8978-479962E2FF95}">
   <ds:schemaRefs>
